--- a/Болбаков Роман Геннадьевич (1ст).xlsx
+++ b/Болбаков Роман Геннадьевич (1ст).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARTEM\IdeaProjects\SRUN-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D28CD5F-42BD-4F89-AFED-D6C53A99F9E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2D3131-FA72-4EAE-8970-43A7B080E0B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титул" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="143">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>ВЕСЕННИЙ СЕМЕСТР</t>
+  </si>
+  <si>
+    <t>${lecturer.degree}</t>
+  </si>
+  <si>
+    <t>${lecturer.academicStatus}</t>
   </si>
   <si>
     <t/>
@@ -3388,8 +3394,8 @@
   </sheetPr>
   <dimension ref="A1:FP31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="FZ9" sqref="FZ9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="BM29" sqref="BM29:DX29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7947,7 +7953,7 @@
       <c r="BK28" s="119"/>
       <c r="BL28" s="119"/>
       <c r="BM28" s="118" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BN28" s="118"/>
       <c r="BO28" s="118"/>
@@ -8017,7 +8023,7 @@
       <c r="DW28" s="122"/>
       <c r="DX28" s="122"/>
       <c r="DY28" s="120" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="DZ28" s="120"/>
       <c r="EA28" s="120"/>
@@ -8239,7 +8245,7 @@
     </row>
     <row r="30" spans="1:172" ht="23.25" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A30" s="115" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B30" s="115"/>
       <c r="C30" s="115"/>
@@ -8670,7 +8676,7 @@
   </sheetPr>
   <dimension ref="A1:FM19"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -9033,11 +9039,11 @@
     </row>
     <row r="6" spans="1:169" ht="15.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A6" s="153" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6" s="157"/>
       <c r="C6" s="159" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D6" s="159" t="n">
         <v>30.0</v>
@@ -9094,11 +9100,11 @@
     </row>
     <row r="8" spans="1:169" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A8" s="153" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" s="157"/>
       <c r="C8" s="159" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D8" s="159" t="n">
         <v>30.0</v>
@@ -9152,11 +9158,11 @@
     </row>
     <row r="10" spans="1:169" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A10" s="153" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" s="157"/>
       <c r="C10" s="159" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D10" s="159" t="n">
         <v>99.0</v>
@@ -9214,11 +9220,11 @@
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="s" s="153">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12" s="157"/>
       <c r="C12" t="s" s="159">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D12" t="n" s="159">
         <v>21.0</v>
@@ -9272,11 +9278,11 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="s" s="153">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" s="157"/>
       <c r="C14" t="s" s="159">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" t="n" s="159">
         <v>53.0</v>
@@ -9864,11 +9870,11 @@
     </row>
     <row r="5" spans="1:76" ht="15.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="153" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5" s="157"/>
       <c r="C5" s="159" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="159" t="n">
         <v>30.0</v>
@@ -9928,11 +9934,11 @@
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A7" s="153" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B7" s="157"/>
       <c r="C7" s="159" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="159" t="n">
         <v>53.0</v>
@@ -10970,7 +10976,7 @@
   </sheetPr>
   <dimension ref="A1:FO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="DC22" sqref="DC22"/>
     </sheetView>
   </sheetViews>
